--- a/documentacion/Recursos/ficha_educatico_subida.xlsx
+++ b/documentacion/Recursos/ficha_educatico_subida.xlsx
@@ -5,17 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Faro\documentacion\Recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\fmarenco\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="72" yWindow="60" windowWidth="15480" windowHeight="10140" tabRatio="814"/>
+    <workbookView xWindow="75" yWindow="60" windowWidth="15480" windowHeight="10140" tabRatio="814"/>
   </bookViews>
   <sheets>
     <sheet name="FORMULARIO" sheetId="12" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -316,59 +315,6 @@
             <rFont val="Century Gothic"/>
             <family val="2"/>
           </rPr>
-          <t>Campo obligatorio.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="39"/>
-            <rFont val="Century Gothic"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Seleccione el tipo de contenido que tiene el recurso.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <u/>
-            <sz val="12"/>
-            <color indexed="39"/>
-            <rFont val="Century Gothic"/>
-            <family val="2"/>
-          </rPr>
-          <t>Campo obligatorio</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="39"/>
-            <rFont val="Century Gothic"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Seleccionar el tipo de recurso según la clasificación presentada
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <u/>
-            <sz val="12"/>
-            <color indexed="39"/>
-            <rFont val="Century Gothic"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">Campo obligatorio.
 </t>
         </r>
@@ -387,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="1" shapeId="0">
+    <comment ref="D15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -402,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="1" shapeId="0">
+    <comment ref="B18" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -430,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="2" shapeId="0">
+    <comment ref="D18" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -446,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="1" shapeId="0">
+    <comment ref="D21" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -501,12 +447,65 @@
         </r>
       </text>
     </comment>
+    <comment ref="B24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="12"/>
+            <color indexed="39"/>
+            <rFont val="Century Gothic"/>
+            <family val="2"/>
+          </rPr>
+          <t>Campo obligatorio.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="39"/>
+            <rFont val="Century Gothic"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Seleccione el tipo de contenido que tiene el recurso.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="12"/>
+            <color indexed="39"/>
+            <rFont val="Century Gothic"/>
+            <family val="2"/>
+          </rPr>
+          <t>Campo obligatorio</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="39"/>
+            <rFont val="Century Gothic"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Seleccionar el tipo de recurso según la clasificación presentada
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
   <si>
     <t>Título</t>
   </si>
@@ -626,9 +625,6 @@
   </si>
   <si>
     <t>III Ciclo y  Educacion diversificada</t>
-  </si>
-  <si>
-    <t>Sitio Web</t>
   </si>
   <si>
     <t>Ingles</t>
@@ -1438,9 +1434,6 @@
     <t>Tipo de Recurso</t>
   </si>
   <si>
-    <t xml:space="preserve">                    TC14: Literatura, Novelas, relatos,          cuentos, obras literarias completas o fragmentos de las mismas. </t>
-  </si>
-  <si>
     <t>Ciencias sociales &gt;&gt;  Educación &gt;&gt; Escuelas y actividades, educación especial</t>
   </si>
   <si>
@@ -1460,7 +1453,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1640,6 +1633,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="6" tint="0.59999389629810485"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="6" tint="0.59999389629810485"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1672,7 +1677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1800,6 +1805,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1810,21 +1918,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1840,23 +1935,152 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1867,21 +2091,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1892,73 +2117,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2160,15 +2323,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>268605</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>167642</xdr:rowOff>
+      <xdr:rowOff>139067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1882140</xdr:colOff>
+      <xdr:colOff>1967865</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:rowOff>184785</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2191,8 +2354,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="182880" y="167642"/>
-          <a:ext cx="2103120" cy="807718"/>
+          <a:off x="268605" y="139067"/>
+          <a:ext cx="2089785" cy="807718"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2205,13 +2368,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1588770</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>489585</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2273,13 +2436,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2638425</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>352424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2594,7 +2757,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>2122782</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>176680</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2646,7 +2809,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2107544</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>169060</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2691,13 +2854,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1935478</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>693421</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2145642</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>169061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2897,110 +3060,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>472440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>529590</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>211454</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Flecha izquierda 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3383280" y="7261860"/>
-          <a:ext cx="278130" cy="257174"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>312420</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>422910</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>51434</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Flecha izquierda 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6751320" y="7101840"/>
-          <a:ext cx="278130" cy="257174"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1790700</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -3060,13 +3119,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1158240</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1836420</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>662940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3117,13 +3176,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1904998</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2115162</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>176681</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3169,13 +3228,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1943099</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>678181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2153263</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>169061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3221,13 +3280,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2103118</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>15241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2313282</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>191921</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3273,13 +3332,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1920237</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>579121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2130401</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>169061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3325,13 +3384,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2110738</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>579121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2320902</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>169061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3409,6 +3468,214 @@
         </a:fillRef>
         <a:effectRef idx="3">
           <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2601067</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>380689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2885721</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>252555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Flecha abajo 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="15056796">
+          <a:off x="9897871" y="10571785"/>
+          <a:ext cx="260486" cy="284654"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2577624</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2885871</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>266123</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Flecha abajo 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="15056796">
+          <a:off x="9836447" y="11407698"/>
+          <a:ext cx="360042" cy="308247"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Flecha izquierda 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10447020" y="11894820"/>
+          <a:ext cx="278130" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>59054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Flecha izquierda 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10447020" y="10988040"/>
+          <a:ext cx="278130" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -3716,684 +3983,858 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:AI38"/>
+  <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="31" style="7" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" style="7" customWidth="1"/>
-    <col min="6" max="8" width="11.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12" style="7" customWidth="1"/>
-    <col min="14" max="16" width="11.44140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="13" style="7" customWidth="1"/>
-    <col min="18" max="31" width="11.44140625" style="7" customWidth="1"/>
-    <col min="32" max="33" width="11.44140625" style="7"/>
-    <col min="34" max="34" width="21.88671875" style="7" customWidth="1"/>
-    <col min="35" max="35" width="26.44140625" style="7" customWidth="1"/>
-    <col min="36" max="16384" width="11.44140625" style="7"/>
+    <col min="1" max="1" width="5.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="34.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13" style="2" customWidth="1"/>
+    <col min="18" max="27" width="11.42578125" style="2" customWidth="1"/>
+    <col min="28" max="31" width="11.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="32" max="33" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="21.85546875" style="2" customWidth="1"/>
+    <col min="35" max="35" width="26.42578125" style="2" customWidth="1"/>
+    <col min="36" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" spans="1:35" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11" t="s">
+    <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="62"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" s="8" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" s="12" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="55"/>
+      <c r="E10" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="E13" s="50" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF4" s="35" t="s">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" s="12" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:33" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:33" s="12" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="57"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:33" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:33" s="12" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="46">
+        <v>43577</v>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="E22" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:33" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:33" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:33" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:33" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:33" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:33" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+    </row>
+    <row r="32" spans="1:33" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+    </row>
+    <row r="33" spans="1:33" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>1</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AG4" s="36" t="s">
+      <c r="AD33" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AH4" s="36" t="s">
+      <c r="AE33" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF33" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="AI4" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="AF5" s="4" t="s">
+      <c r="AG33" s="3"/>
+    </row>
+    <row r="34" spans="1:33" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>2</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AD34" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE34" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF34" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG34" s="3"/>
+    </row>
+    <row r="35" spans="1:33" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>3</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD35" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AH5" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AE35" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF35" s="22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" s="18" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="AG35" s="3"/>
+    </row>
+    <row r="36" spans="1:33" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>4</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG6" s="5" t="s">
+      <c r="B36" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD36" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE36" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF36" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG36" s="3"/>
+    </row>
+    <row r="37" spans="1:33" ht="243" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD37" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AH6" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AE37" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF37" s="22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG7" s="5" t="s">
+      <c r="AG37" s="3"/>
+    </row>
+    <row r="38" spans="1:33" ht="217.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD38" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE38" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF38" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG38" s="3"/>
+    </row>
+    <row r="39" spans="1:33" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD39" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE39" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF39" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="1:33" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF40" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="1:33" ht="281.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF41" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG41" s="3"/>
+    </row>
+    <row r="42" spans="1:33" ht="306.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF42" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG42" s="3"/>
+    </row>
+    <row r="43" spans="1:33" ht="294" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF43" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG43" s="3"/>
+    </row>
+    <row r="44" spans="1:33" ht="243" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF44" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG44" s="3"/>
+    </row>
+    <row r="45" spans="1:33" ht="204" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AH7" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI7" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="25"/>
-      <c r="AF8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH8" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" s="18" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH9" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI9" s="1" t="s">
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF45" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG45" s="3"/>
+    </row>
+    <row r="46" spans="1:33" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG46" s="3"/>
+    </row>
+    <row r="47" spans="1:33" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD47" s="26"/>
+      <c r="AE47" s="26"/>
+      <c r="AF47" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG47" s="3"/>
+    </row>
+    <row r="48" spans="1:33" ht="318.75" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG48" s="3"/>
+    </row>
+    <row r="49" spans="28:33" ht="306" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG49" s="3"/>
+    </row>
+    <row r="50" spans="28:33" ht="255" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD50" s="26"/>
+      <c r="AE50" s="26"/>
+      <c r="AF50" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG50" s="3"/>
+    </row>
+    <row r="51" spans="28:33" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG51" s="3"/>
+    </row>
+    <row r="52" spans="28:33" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG52" s="3"/>
+    </row>
+    <row r="53" spans="28:33" ht="204" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD53" s="26"/>
+      <c r="AE53" s="26"/>
+      <c r="AF53" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG53" s="3"/>
+    </row>
+    <row r="54" spans="28:33" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG54" s="3"/>
+    </row>
+    <row r="55" spans="28:33" ht="293.25" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="22" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH10" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="25"/>
-      <c r="AF11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH11" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" s="18" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH12" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI12" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="25" t="s">
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="28:33" ht="153" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="28:33" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH13" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI13" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="25"/>
-      <c r="AF14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH14" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" s="18" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH15" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI15" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH16" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI16" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="AF17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI17" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" s="18" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI18" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI19" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="AF20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" s="18" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI21" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI22" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="25"/>
-      <c r="AF23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI23" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" s="18" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI24" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="28">
-        <v>43577</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI25" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="44"/>
-      <c r="AF26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI26" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" ht="66" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="AF27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI27" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="AF28" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="49"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:35" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45">
-        <v>1</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:35" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45">
-        <v>2</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:35" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45">
-        <v>3</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45">
-        <v>4</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3"/>
+    </row>
+    <row r="58" spans="28:33" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3"/>
+    </row>
+    <row r="59" spans="28:33" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="a/IdC/h57GtYb7U5AShuhxK9qQfUSvoGg6GsHdwSX6crgObdSamf2gqsWkEHTMrcyBeL33djgeRNR/MFrPGvcQ==" saltValue="6guK1DNYu+PVaFdoeTflNg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="38">
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E29"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="A31:E32"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="MATERIAS" prompt="ASIGNATURA" sqref="D7:D8">
-      <formula1>$AF$4:$AF$28</formula1>
+      <formula1>$AC$33:$AC$57</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="IDIOMA" sqref="B13:B14">
-      <formula1>$AG$4:$AG$10</formula1>
+      <formula1>$AD$33:$AD$39</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B17">
-      <formula1>$AH$4:$AH$16</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>$AE$33:$AE$45</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D17">
-      <formula1>$AI$4:$AI$27</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>$AF$33:$AF$56</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E19" r:id="rId1"/>
+    <hyperlink ref="E16" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
